--- a/models/calculation engines/cbix2/outputs/default/frieght_calcs_to_actual_nominated_port/frieght_calculations-actual_port-first_leg.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/frieght_calcs_to_actual_nominated_port/frieght_calculations-actual_port-first_leg.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +492,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94064.31505879021</v>
+        <v>94064.31505879022</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -511,12 +511,12 @@
         <v>37945.54469471597</v>
       </c>
       <c r="F3" t="n">
-        <v>53606.97308400624</v>
+        <v>53606.97308400625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>59085.8416945374</v>
+        <v>59085.8416945373</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -529,13 +529,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>197.4719397993311</v>
+        <v>197.471939799331</v>
       </c>
       <c r="E4" t="n">
-        <v>23835.22853957639</v>
+        <v>23835.22853957634</v>
       </c>
       <c r="F4" t="n">
-        <v>35456.64325529546</v>
+        <v>35456.64325529541</v>
       </c>
     </row>
     <row r="5">
@@ -564,7 +564,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>59085.8416945374</v>
+        <v>59085.8416945373</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>197.4719397993311</v>
+        <v>197.471939799331</v>
       </c>
       <c r="E6" t="n">
-        <v>23835.22853957639</v>
+        <v>23835.22853957634</v>
       </c>
       <c r="F6" t="n">
-        <v>35456.64325529546</v>
+        <v>35456.64325529541</v>
       </c>
     </row>
     <row r="7">
@@ -597,7 +597,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -621,7 +621,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -645,7 +645,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -828,26 +828,26 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>180000</v>
+        <v>60000.00000000001</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>303.03</v>
+        <v>198.27</v>
       </c>
       <c r="E17" t="n">
-        <v>72612</v>
+        <v>24204</v>
       </c>
       <c r="F17" t="n">
-        <v>98199</v>
+        <v>35931</v>
       </c>
     </row>
     <row r="18">
@@ -876,26 +876,26 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>180000</v>
+        <v>60000</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>303.03</v>
+        <v>198.27</v>
       </c>
       <c r="E19" t="n">
-        <v>72612</v>
+        <v>24204</v>
       </c>
       <c r="F19" t="n">
-        <v>98199</v>
+        <v>35931</v>
       </c>
     </row>
     <row r="20">
@@ -924,26 +924,26 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>180000</v>
+        <v>60000</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>303.03</v>
+        <v>198.27</v>
       </c>
       <c r="E21" t="n">
-        <v>72612</v>
+        <v>24204</v>
       </c>
       <c r="F21" t="n">
-        <v>98199</v>
+        <v>35931</v>
       </c>
     </row>
     <row r="22">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1108,7 +1108,7 @@
         <v>190.6592307692308</v>
       </c>
       <c r="E28" t="n">
-        <v>20687.1794871795</v>
+        <v>20687.17948717949</v>
       </c>
       <c r="F28" t="n">
         <v>31407.25641025642</v>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>329.22</v>
+        <v>329.2199999999999</v>
       </c>
       <c r="E32" t="n">
         <v>84714</v>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1222,16 +1222,8 @@
       <c r="A34" t="n">
         <v>39886.0398860399</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Handysize</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Handysize</t>
-        </is>
-      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
         <v>180.7105128205128</v>
       </c>
@@ -1253,7 +1245,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1277,7 +1269,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1301,7 +1293,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1318,16 +1310,8 @@
       <c r="A38" t="n">
         <v>39886.0398860399</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Handysize</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Handysize</t>
-        </is>
-      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
         <v>180.7105128205128</v>
       </c>
@@ -1349,7 +1333,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1373,7 +1357,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1397,7 +1381,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1421,7 +1405,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1445,7 +1429,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1524,7 +1508,7 @@
         <v>190.6592307692308</v>
       </c>
       <c r="E46" t="n">
-        <v>20687.1794871795</v>
+        <v>20687.17948717949</v>
       </c>
       <c r="F46" t="n">
         <v>31407.25641025642</v>
@@ -1532,7 +1516,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>76095.947063689</v>
+        <v>76095.94706368899</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1700,7 +1684,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>59085.8416945374</v>
+        <v>59085.8416945373</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1713,18 +1697,18 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>197.4719397993311</v>
+        <v>197.471939799331</v>
       </c>
       <c r="E54" t="n">
-        <v>23835.22853957639</v>
+        <v>23835.22853957634</v>
       </c>
       <c r="F54" t="n">
-        <v>35456.64325529546</v>
+        <v>35456.64325529541</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>59085.8416945374</v>
+        <v>59085.8416945373</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1737,18 +1721,18 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>197.4719397993311</v>
+        <v>197.471939799331</v>
       </c>
       <c r="E55" t="n">
-        <v>23835.22853957639</v>
+        <v>23835.22853957634</v>
       </c>
       <c r="F55" t="n">
-        <v>35456.64325529546</v>
+        <v>35456.64325529541</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>59085.8416945374</v>
+        <v>59085.8416945373</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1761,18 +1745,18 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>197.4719397993311</v>
+        <v>197.471939799331</v>
       </c>
       <c r="E56" t="n">
-        <v>23835.22853957639</v>
+        <v>23835.22853957634</v>
       </c>
       <c r="F56" t="n">
-        <v>35456.64325529546</v>
+        <v>35456.64325529541</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>57765.9888004716</v>
+        <v>57765.98880047161</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1788,10 +1772,10 @@
         <v>196.3197082228117</v>
       </c>
       <c r="E57" t="n">
-        <v>23302.79988211024</v>
+        <v>23302.79988211025</v>
       </c>
       <c r="F57" t="n">
-        <v>34771.77158856471</v>
+        <v>34771.77158856472</v>
       </c>
     </row>
     <row r="58">
@@ -1820,7 +1804,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>57765.9888004716</v>
+        <v>57765.98880047161</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1836,10 +1820,10 @@
         <v>196.3197082228117</v>
       </c>
       <c r="E59" t="n">
-        <v>23302.79988211024</v>
+        <v>23302.79988211025</v>
       </c>
       <c r="F59" t="n">
-        <v>34771.77158856471</v>
+        <v>34771.77158856472</v>
       </c>
     </row>
     <row r="60">
@@ -1881,7 +1865,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>189.0410658016682</v>
+        <v>189.0410658016681</v>
       </c>
       <c r="E61" t="n">
         <v>19939.45010812479</v>
@@ -1892,7 +1876,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>50031.2695434647</v>
+        <v>50031.26954346471</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1911,12 +1895,12 @@
         <v>20182.61413383366</v>
       </c>
       <c r="F62" t="n">
-        <v>30758.22576610383</v>
+        <v>30758.22576610384</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>50031.2695434647</v>
+        <v>50031.26954346471</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1935,12 +1919,12 @@
         <v>20182.61413383366</v>
       </c>
       <c r="F63" t="n">
-        <v>30758.22576610383</v>
+        <v>30758.22576610384</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>81343.94341290891</v>
+        <v>81343.94341290889</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1953,18 +1937,18 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>216.9032625994695</v>
+        <v>216.9032625994694</v>
       </c>
       <c r="E64" t="n">
         <v>32814.14677276745</v>
       </c>
       <c r="F64" t="n">
-        <v>47006.37223695844</v>
+        <v>47006.37223695843</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>81343.94341290891</v>
+        <v>81343.94341290889</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1977,13 +1961,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>216.9032625994695</v>
+        <v>216.9032625994694</v>
       </c>
       <c r="E65" t="n">
         <v>32814.14677276745</v>
       </c>
       <c r="F65" t="n">
-        <v>47006.37223695844</v>
+        <v>47006.37223695843</v>
       </c>
     </row>
     <row r="66">
@@ -2036,7 +2020,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>74074.0740740741</v>
+        <v>74074.07407407409</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2049,13 +2033,13 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>210.5566666666667</v>
+        <v>210.5566666666666</v>
       </c>
       <c r="E68" t="n">
         <v>29881.48148148149</v>
       </c>
       <c r="F68" t="n">
-        <v>43234.03703703705</v>
+        <v>43234.03703703704</v>
       </c>
     </row>
     <row r="69">
@@ -2069,7 +2053,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -2093,7 +2077,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2117,7 +2101,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2141,7 +2125,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -2165,7 +2149,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2189,7 +2173,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -2213,7 +2197,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2228,7 +2212,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>76095.947063689</v>
+        <v>76095.94706368899</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2300,7 +2284,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>81343.94341290891</v>
+        <v>81343.94341290889</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2313,13 +2297,13 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>216.9032625994695</v>
+        <v>216.9032625994694</v>
       </c>
       <c r="E79" t="n">
         <v>32814.14677276745</v>
       </c>
       <c r="F79" t="n">
-        <v>47006.37223695844</v>
+        <v>47006.37223695843</v>
       </c>
     </row>
     <row r="80">
@@ -2372,7 +2356,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>53050.3978779841</v>
+        <v>53050.39787798409</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2388,7 +2372,7 @@
         <v>192.2029973474801</v>
       </c>
       <c r="E82" t="n">
-        <v>21400.53050397879</v>
+        <v>21400.53050397878</v>
       </c>
       <c r="F82" t="n">
         <v>32324.85145888595</v>
@@ -2396,7 +2380,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>53050.3978779841</v>
+        <v>53050.39787798409</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2412,7 +2396,7 @@
         <v>192.2029973474801</v>
       </c>
       <c r="E83" t="n">
-        <v>21400.53050397879</v>
+        <v>21400.53050397878</v>
       </c>
       <c r="F83" t="n">
         <v>32324.85145888595</v>
@@ -2436,7 +2420,7 @@
         <v>188.302955465587</v>
       </c>
       <c r="E84" t="n">
-        <v>19598.38056680161</v>
+        <v>19598.38056680162</v>
       </c>
       <c r="F84" t="n">
         <v>30006.71659919028</v>
@@ -2477,7 +2461,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2501,7 +2485,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2525,7 +2509,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2549,7 +2533,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -2573,7 +2557,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2597,7 +2581,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2621,7 +2605,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -2645,7 +2629,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2669,7 +2653,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2684,25 +2668,49 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>180000</v>
+        <v>66728.452270621</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>303.03</v>
+        <v>204.1439388322521</v>
       </c>
       <c r="E95" t="n">
-        <v>72612</v>
+        <v>26918.25764596851</v>
       </c>
       <c r="F95" t="n">
+        <v>39422.39388322524</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>180000</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Capesize</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Suezmax</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>303.03</v>
+      </c>
+      <c r="E96" t="n">
+        <v>72612</v>
+      </c>
+      <c r="F96" t="n">
         <v>98199</v>
       </c>
     </row>
